--- a/FTSE_350_FIRM_LIST.xlsx
+++ b/FTSE_350_FIRM_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms3453n\OneDrive - University of Greenwich\GitHub\FTSE_350_LIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275FA82D-5F3A-4483-94F5-DD3AD6E50267}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{F605CEE6-ABBA-44E8-BF03-E905F5B740F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/FTSE_350_FIRM_LIST.xlsx
+++ b/FTSE_350_FIRM_LIST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms3453n\OneDrive - University of Greenwich\GitHub\FTSE_350_LIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758AE8C0-6B39-4AE2-9FB4-CBE214454BFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5B1F11-1F5B-4076-A8EC-AE2884E25887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4445" uniqueCount="2061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="2201">
   <si>
     <t>CODE</t>
   </si>
@@ -6213,6 +6213,426 @@
   </si>
   <si>
     <t>FULL NAME</t>
+  </si>
+  <si>
+    <t>twitter_screen_name</t>
+  </si>
+  <si>
+    <t>3iplc</t>
+  </si>
+  <si>
+    <t>AngloAmerican</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>astonmartin</t>
+  </si>
+  <si>
+    <t>AntofagastaPLC</t>
+  </si>
+  <si>
+    <t>MediaLink</t>
+  </si>
+  <si>
+    <t>AshmoreEM</t>
+  </si>
+  <si>
+    <t>Alliance_Trust</t>
+  </si>
+  <si>
+    <t>AutoTrader_UK</t>
+  </si>
+  <si>
+    <t>avivaplc</t>
+  </si>
+  <si>
+    <t>AstraZeneca</t>
+  </si>
+  <si>
+    <t>BAESystemsplc</t>
+  </si>
+  <si>
+    <t>lucydimes</t>
+  </si>
+  <si>
+    <t>Barclays</t>
+  </si>
+  <si>
+    <t>BATPress</t>
+  </si>
+  <si>
+    <t>tritaxsymmetry</t>
+  </si>
+  <si>
+    <t>Barrattplc</t>
+  </si>
+  <si>
+    <t>BritishLandPLC</t>
+  </si>
+  <si>
+    <t>bmstores</t>
+  </si>
+  <si>
+    <t>JoannaGilroy</t>
+  </si>
+  <si>
+    <t>bodycoteplc</t>
+  </si>
+  <si>
+    <t>BTGroup</t>
+  </si>
+  <si>
+    <t>Britvic</t>
+  </si>
+  <si>
+    <t>K22KJJ</t>
+  </si>
+  <si>
+    <t>CarnivalPLC</t>
+  </si>
+  <si>
+    <t>CentaminPlc</t>
+  </si>
+  <si>
+    <t>CLSHoldings</t>
+  </si>
+  <si>
+    <t>centricaplc</t>
+  </si>
+  <si>
+    <t>CairnEnergy</t>
+  </si>
+  <si>
+    <t>CoatsGroupplc</t>
+  </si>
+  <si>
+    <t>Cobham_plc</t>
+  </si>
+  <si>
+    <t>compassgroupusa</t>
+  </si>
+  <si>
+    <t>CapitaPlc</t>
+  </si>
+  <si>
+    <t>CrodaPlc</t>
+  </si>
+  <si>
+    <t>TarmacLtd</t>
+  </si>
+  <si>
+    <t>CranswickPlc</t>
+  </si>
+  <si>
+    <t>DixonsCarphone</t>
+  </si>
+  <si>
+    <t>DiageoGB</t>
+  </si>
+  <si>
+    <t>DunelmUK</t>
+  </si>
+  <si>
+    <t>DavidNussbaum1</t>
+  </si>
+  <si>
+    <t>RSComponents</t>
+  </si>
+  <si>
+    <t>ManGroup</t>
+  </si>
+  <si>
+    <t>EuromoneyEnergy</t>
+  </si>
+  <si>
+    <t>Ferguson_plc</t>
+  </si>
+  <si>
+    <t>bernardkuhn</t>
+  </si>
+  <si>
+    <t>PPBetfair</t>
+  </si>
+  <si>
+    <t>FresnilloUK</t>
+  </si>
+  <si>
+    <t>futureplc</t>
+  </si>
+  <si>
+    <t>Ferrexpoplc</t>
+  </si>
+  <si>
+    <t>GeGallif</t>
+  </si>
+  <si>
+    <t>Glencore</t>
+  </si>
+  <si>
+    <t>ABS_Global_Inc</t>
+  </si>
+  <si>
+    <t>GPE_plc</t>
+  </si>
+  <si>
+    <t>GreggsOfficial</t>
+  </si>
+  <si>
+    <t>graingerplc</t>
+  </si>
+  <si>
+    <t>GVCHoldings</t>
+  </si>
+  <si>
+    <t>haysplcIR</t>
+  </si>
+  <si>
+    <t>HgCapitalTrust</t>
+  </si>
+  <si>
+    <t>Halmaplc</t>
+  </si>
+  <si>
+    <t>Hammersonplc</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>HuntingPlc</t>
+  </si>
+  <si>
+    <t>ibstockbrick</t>
+  </si>
+  <si>
+    <t>IHGCorporate</t>
+  </si>
+  <si>
+    <t>ImperialBrands</t>
+  </si>
+  <si>
+    <t>tomeales_</t>
+  </si>
+  <si>
+    <t>InformaPLC</t>
+  </si>
+  <si>
+    <t>MichaelInfante4</t>
+  </si>
+  <si>
+    <t>Intertek_OCA</t>
+  </si>
+  <si>
+    <t>IWG_plc</t>
+  </si>
+  <si>
+    <t>jdsportsus</t>
+  </si>
+  <si>
+    <t>matbraddy</t>
+  </si>
+  <si>
+    <t>Johnson_Matthey</t>
+  </si>
+  <si>
+    <t>kingfisherplc</t>
+  </si>
+  <si>
+    <t>landg_uk</t>
+  </si>
+  <si>
+    <t>LBGplc</t>
+  </si>
+  <si>
+    <t>MarstonsPLC</t>
+  </si>
+  <si>
+    <t>MicroFocus</t>
+  </si>
+  <si>
+    <t>MoneySupermkt</t>
+  </si>
+  <si>
+    <t>Morrisons</t>
+  </si>
+  <si>
+    <t>ngpartners_</t>
+  </si>
+  <si>
+    <t>Xulahoo</t>
+  </si>
+  <si>
+    <t>nextofficial</t>
+  </si>
+  <si>
+    <t>Andy_Golding</t>
+  </si>
+  <si>
+    <t>DavidDeutschOxf</t>
+  </si>
+  <si>
+    <t>bashaepcrecruit</t>
+  </si>
+  <si>
+    <t>PHPReit</t>
+  </si>
+  <si>
+    <t>PremierOilplc</t>
+  </si>
+  <si>
+    <t>PennonGroup</t>
+  </si>
+  <si>
+    <t>prudentialplc</t>
+  </si>
+  <si>
+    <t>pearson</t>
+  </si>
+  <si>
+    <t>PlaytechPLC</t>
+  </si>
+  <si>
+    <t>sketim</t>
+  </si>
+  <si>
+    <t>Rathbones1742</t>
+  </si>
+  <si>
+    <t>discoverRB</t>
+  </si>
+  <si>
+    <t>RBS_Help</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>RedrowHomes</t>
+  </si>
+  <si>
+    <t>arafernezian</t>
+  </si>
+  <si>
+    <t>RioTinto</t>
+  </si>
+  <si>
+    <t>RoyalMail</t>
+  </si>
+  <si>
+    <t>rightmove</t>
+  </si>
+  <si>
+    <t>therankgroup</t>
+  </si>
+  <si>
+    <t>RollsRoyce</t>
+  </si>
+  <si>
+    <t>Amy_RenishawPLC</t>
+  </si>
+  <si>
+    <t>sainsburys</t>
+  </si>
+  <si>
+    <t>ScotInvTrust</t>
+  </si>
+  <si>
+    <t>softcat</t>
+  </si>
+  <si>
+    <t>SageUSAmerica</t>
+  </si>
+  <si>
+    <t>SEGROplc</t>
+  </si>
+  <si>
+    <t>Shaftesburyplc</t>
+  </si>
+  <si>
+    <t>SIGplc</t>
+  </si>
+  <si>
+    <t>SLA_plc</t>
+  </si>
+  <si>
+    <t>gregjD100</t>
+  </si>
+  <si>
+    <t>SmithsGroupplc</t>
+  </si>
+  <si>
+    <t>WHSmith</t>
+  </si>
+  <si>
+    <t>SmithNephewPLC</t>
+  </si>
+  <si>
+    <t>StanChart</t>
+  </si>
+  <si>
+    <t>Savills</t>
+  </si>
+  <si>
+    <t>spectrisplc</t>
+  </si>
+  <si>
+    <t>SynconaLtd</t>
+  </si>
+  <si>
+    <t>Synthomer_Group</t>
+  </si>
+  <si>
+    <t>tateandlyleplc</t>
+  </si>
+  <si>
+    <t>TPICAPplc</t>
+  </si>
+  <si>
+    <t>telecomplusplc</t>
+  </si>
+  <si>
+    <t>TullowOilplc</t>
+  </si>
+  <si>
+    <t>TP_plc</t>
+  </si>
+  <si>
+    <t>Tesco</t>
+  </si>
+  <si>
+    <t>TUI_Presse</t>
+  </si>
+  <si>
+    <t>TaylorWimpeyplc</t>
+  </si>
+  <si>
+    <t>Unilever</t>
+  </si>
+  <si>
+    <t>UNITEGroup</t>
+  </si>
+  <si>
+    <t>unitedutilities</t>
+  </si>
+  <si>
+    <t>VodafoneGroup</t>
+  </si>
+  <si>
+    <t>WorkspaceViewer</t>
+  </si>
+  <si>
+    <t>WilliamHill</t>
+  </si>
+  <si>
+    <t>WitanInvTrust</t>
+  </si>
+  <si>
+    <t>WhitbreadPLC</t>
+  </si>
+  <si>
+    <t>twitter_search_name</t>
   </si>
 </sst>
 </file>
@@ -7062,7 +7482,7 @@
   <dimension ref="A1:F352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14119,8 +14539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G352"/>
   <sheetViews>
-    <sheetView topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="F318" sqref="F318"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22231,15 +22651,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I329"/>
+  <dimension ref="A1:K329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="55.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -22264,8 +22687,14 @@
       <c r="I1" t="s">
         <v>2060</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1100</v>
       </c>
@@ -22293,8 +22722,14 @@
       <c r="I2" t="s">
         <v>1732</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1101</v>
       </c>
@@ -22322,8 +22757,14 @@
       <c r="I3" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1102</v>
       </c>
@@ -22351,8 +22792,14 @@
       <c r="I4" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>1734</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1103</v>
       </c>
@@ -22380,8 +22827,14 @@
       <c r="I5" t="s">
         <v>1735</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>1735</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1104</v>
       </c>
@@ -22409,8 +22862,14 @@
       <c r="I6" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>1736</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1105</v>
       </c>
@@ -22438,8 +22897,14 @@
       <c r="I7" t="s">
         <v>1737</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>1737</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1106</v>
       </c>
@@ -22467,8 +22932,14 @@
       <c r="I8" t="s">
         <v>1738</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1107</v>
       </c>
@@ -22496,8 +22967,14 @@
       <c r="I9" t="s">
         <v>1739</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>1739</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1108</v>
       </c>
@@ -22525,8 +23002,14 @@
       <c r="I10" t="s">
         <v>1740</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1109</v>
       </c>
@@ -22554,8 +23037,14 @@
       <c r="I11" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1110</v>
       </c>
@@ -22583,8 +23072,14 @@
       <c r="I12" t="s">
         <v>1742</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>1742</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1111</v>
       </c>
@@ -22612,8 +23107,14 @@
       <c r="I13" t="s">
         <v>1743</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>1743</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1112</v>
       </c>
@@ -22641,8 +23142,14 @@
       <c r="I14" t="s">
         <v>1744</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>1744</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1113</v>
       </c>
@@ -22670,8 +23177,14 @@
       <c r="I15" t="s">
         <v>1745</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1114</v>
       </c>
@@ -22699,8 +23212,14 @@
       <c r="I16" t="s">
         <v>1746</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>1746</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1115</v>
       </c>
@@ -22728,8 +23247,14 @@
       <c r="I17" t="s">
         <v>1747</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>1747</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1116</v>
       </c>
@@ -22757,8 +23282,14 @@
       <c r="I18" t="s">
         <v>1748</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1117</v>
       </c>
@@ -22786,8 +23317,14 @@
       <c r="I19" t="s">
         <v>1749</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>1749</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1118</v>
       </c>
@@ -22815,8 +23352,14 @@
       <c r="I20" t="s">
         <v>1750</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>1750</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1119</v>
       </c>
@@ -22844,8 +23387,14 @@
       <c r="I21" t="s">
         <v>1751</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>1751</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1120</v>
       </c>
@@ -22873,8 +23422,14 @@
       <c r="I22" t="s">
         <v>1752</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>1752</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1121</v>
       </c>
@@ -22902,8 +23457,14 @@
       <c r="I23" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>1753</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1122</v>
       </c>
@@ -22931,8 +23492,14 @@
       <c r="I24" t="s">
         <v>1754</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>1754</v>
+      </c>
+      <c r="K24" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1123</v>
       </c>
@@ -22960,8 +23527,14 @@
       <c r="I25" t="s">
         <v>1755</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>1755</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1124</v>
       </c>
@@ -22989,8 +23562,14 @@
       <c r="I26" t="s">
         <v>1756</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>1756</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1125</v>
       </c>
@@ -23018,8 +23597,14 @@
       <c r="I27" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>1757</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1126</v>
       </c>
@@ -23047,8 +23632,14 @@
       <c r="I28" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1127</v>
       </c>
@@ -23076,8 +23667,14 @@
       <c r="I29" t="s">
         <v>1759</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>1759</v>
+      </c>
+      <c r="K29" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1128</v>
       </c>
@@ -23105,8 +23702,14 @@
       <c r="I30" t="s">
         <v>1760</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>1760</v>
+      </c>
+      <c r="K30" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1129</v>
       </c>
@@ -23134,8 +23737,14 @@
       <c r="I31" t="s">
         <v>1761</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>1761</v>
+      </c>
+      <c r="K31" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1130</v>
       </c>
@@ -23163,8 +23772,14 @@
       <c r="I32" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>1762</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1131</v>
       </c>
@@ -23192,8 +23807,14 @@
       <c r="I33" t="s">
         <v>1763</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>1763</v>
+      </c>
+      <c r="K33" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1132</v>
       </c>
@@ -23221,8 +23842,14 @@
       <c r="I34" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>1764</v>
+      </c>
+      <c r="K34" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1133</v>
       </c>
@@ -23250,8 +23877,14 @@
       <c r="I35" t="s">
         <v>1765</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K35" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1134</v>
       </c>
@@ -23279,8 +23912,14 @@
       <c r="I36" t="s">
         <v>1766</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>1766</v>
+      </c>
+      <c r="K36" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1135</v>
       </c>
@@ -23308,8 +23947,14 @@
       <c r="I37" t="s">
         <v>1767</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>1767</v>
+      </c>
+      <c r="K37" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1136</v>
       </c>
@@ -23337,8 +23982,14 @@
       <c r="I38" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>1768</v>
+      </c>
+      <c r="K38" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1137</v>
       </c>
@@ -23366,8 +24017,14 @@
       <c r="I39" t="s">
         <v>1769</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>1769</v>
+      </c>
+      <c r="K39" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1138</v>
       </c>
@@ -23395,8 +24052,14 @@
       <c r="I40" t="s">
         <v>1770</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>1770</v>
+      </c>
+      <c r="K40" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1139</v>
       </c>
@@ -23424,8 +24087,14 @@
       <c r="I41" t="s">
         <v>1771</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>1771</v>
+      </c>
+      <c r="K41" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1140</v>
       </c>
@@ -23453,8 +24122,14 @@
       <c r="I42" t="s">
         <v>1772</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>1772</v>
+      </c>
+      <c r="K42" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1141</v>
       </c>
@@ -23482,8 +24157,14 @@
       <c r="I43" t="s">
         <v>1773</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K43" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1142</v>
       </c>
@@ -23511,8 +24192,14 @@
       <c r="I44" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K44" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1143</v>
       </c>
@@ -23540,8 +24227,14 @@
       <c r="I45" t="s">
         <v>1775</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" t="s">
+        <v>1775</v>
+      </c>
+      <c r="K45" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1144</v>
       </c>
@@ -23569,8 +24262,14 @@
       <c r="I46" t="s">
         <v>1776</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" t="s">
+        <v>1776</v>
+      </c>
+      <c r="K46" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1145</v>
       </c>
@@ -23598,8 +24297,14 @@
       <c r="I47" t="s">
         <v>1777</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" t="s">
+        <v>1777</v>
+      </c>
+      <c r="K47" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1146</v>
       </c>
@@ -23627,8 +24332,14 @@
       <c r="I48" t="s">
         <v>1778</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
+        <v>1778</v>
+      </c>
+      <c r="K48" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1147</v>
       </c>
@@ -23656,8 +24367,14 @@
       <c r="I49" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" t="s">
+        <v>1779</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1148</v>
       </c>
@@ -23685,8 +24402,14 @@
       <c r="I50" t="s">
         <v>1780</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" t="s">
+        <v>1780</v>
+      </c>
+      <c r="K50" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1149</v>
       </c>
@@ -23714,8 +24437,14 @@
       <c r="I51" t="s">
         <v>1781</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" t="s">
+        <v>1781</v>
+      </c>
+      <c r="K51" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1150</v>
       </c>
@@ -23743,8 +24472,14 @@
       <c r="I52" t="s">
         <v>1782</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K52" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1151</v>
       </c>
@@ -23772,8 +24507,14 @@
       <c r="I53" t="s">
         <v>1783</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" t="s">
+        <v>1783</v>
+      </c>
+      <c r="K53" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1152</v>
       </c>
@@ -23801,8 +24542,14 @@
       <c r="I54" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" t="s">
+        <v>1784</v>
+      </c>
+      <c r="K54" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1153</v>
       </c>
@@ -23830,8 +24577,14 @@
       <c r="I55" t="s">
         <v>1785</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" t="s">
+        <v>1785</v>
+      </c>
+      <c r="K55" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1154</v>
       </c>
@@ -23859,8 +24612,14 @@
       <c r="I56" t="s">
         <v>1786</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" t="s">
+        <v>1786</v>
+      </c>
+      <c r="K56" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1155</v>
       </c>
@@ -23888,8 +24647,14 @@
       <c r="I57" t="s">
         <v>1787</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" t="s">
+        <v>1787</v>
+      </c>
+      <c r="K57" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1156</v>
       </c>
@@ -23917,8 +24682,14 @@
       <c r="I58" t="s">
         <v>1788</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" t="s">
+        <v>1788</v>
+      </c>
+      <c r="K58" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1157</v>
       </c>
@@ -23946,8 +24717,14 @@
       <c r="I59" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K59" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1158</v>
       </c>
@@ -23975,8 +24752,14 @@
       <c r="I60" t="s">
         <v>1790</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60" t="s">
+        <v>1790</v>
+      </c>
+      <c r="K60" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1159</v>
       </c>
@@ -24004,8 +24787,14 @@
       <c r="I61" t="s">
         <v>1791</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" t="s">
+        <v>1791</v>
+      </c>
+      <c r="K61" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1160</v>
       </c>
@@ -24033,8 +24822,14 @@
       <c r="I62" t="s">
         <v>1792</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62" t="s">
+        <v>1792</v>
+      </c>
+      <c r="K62" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1161</v>
       </c>
@@ -24062,8 +24857,14 @@
       <c r="I63" t="s">
         <v>1793</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" t="s">
+        <v>1793</v>
+      </c>
+      <c r="K63" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1162</v>
       </c>
@@ -24091,8 +24892,14 @@
       <c r="I64" t="s">
         <v>1794</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64" t="s">
+        <v>1794</v>
+      </c>
+      <c r="K64" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1163</v>
       </c>
@@ -24120,8 +24927,14 @@
       <c r="I65" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" t="s">
+        <v>1795</v>
+      </c>
+      <c r="K65" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1164</v>
       </c>
@@ -24149,8 +24962,14 @@
       <c r="I66" t="s">
         <v>1796</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" t="s">
+        <v>1796</v>
+      </c>
+      <c r="K66" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1165</v>
       </c>
@@ -24178,8 +24997,14 @@
       <c r="I67" t="s">
         <v>1797</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" t="s">
+        <v>1797</v>
+      </c>
+      <c r="K67" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1166</v>
       </c>
@@ -24207,8 +25032,14 @@
       <c r="I68" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K68" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1167</v>
       </c>
@@ -24236,8 +25067,14 @@
       <c r="I69" t="s">
         <v>1799</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69" t="s">
+        <v>1799</v>
+      </c>
+      <c r="K69" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1168</v>
       </c>
@@ -24265,8 +25102,14 @@
       <c r="I70" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70" t="s">
+        <v>1800</v>
+      </c>
+      <c r="K70" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1169</v>
       </c>
@@ -24294,8 +25137,14 @@
       <c r="I71" t="s">
         <v>1801</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" t="s">
+        <v>1801</v>
+      </c>
+      <c r="K71" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1170</v>
       </c>
@@ -24323,8 +25172,14 @@
       <c r="I72" t="s">
         <v>1802</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72" t="s">
+        <v>1802</v>
+      </c>
+      <c r="K72" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1171</v>
       </c>
@@ -24352,8 +25207,14 @@
       <c r="I73" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73" t="s">
+        <v>1803</v>
+      </c>
+      <c r="K73" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1172</v>
       </c>
@@ -24381,8 +25242,14 @@
       <c r="I74" t="s">
         <v>1804</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K74" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1173</v>
       </c>
@@ -24410,8 +25277,14 @@
       <c r="I75" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75" t="s">
+        <v>1805</v>
+      </c>
+      <c r="K75" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1174</v>
       </c>
@@ -24439,8 +25312,14 @@
       <c r="I76" t="s">
         <v>1806</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76" t="s">
+        <v>1806</v>
+      </c>
+      <c r="K76" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1175</v>
       </c>
@@ -24468,8 +25347,14 @@
       <c r="I77" t="s">
         <v>1807</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77" t="s">
+        <v>1807</v>
+      </c>
+      <c r="K77" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1176</v>
       </c>
@@ -24497,8 +25382,14 @@
       <c r="I78" t="s">
         <v>1808</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78" t="s">
+        <v>1808</v>
+      </c>
+      <c r="K78" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1177</v>
       </c>
@@ -24526,8 +25417,14 @@
       <c r="I79" t="s">
         <v>1809</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79" t="s">
+        <v>1809</v>
+      </c>
+      <c r="K79" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1178</v>
       </c>
@@ -24555,8 +25452,14 @@
       <c r="I80" t="s">
         <v>1810</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80" t="s">
+        <v>1810</v>
+      </c>
+      <c r="K80" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1179</v>
       </c>
@@ -24584,8 +25487,14 @@
       <c r="I81" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81" t="s">
+        <v>1811</v>
+      </c>
+      <c r="K81" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1180</v>
       </c>
@@ -24613,8 +25522,14 @@
       <c r="I82" t="s">
         <v>1812</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82" t="s">
+        <v>1812</v>
+      </c>
+      <c r="K82" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1181</v>
       </c>
@@ -24642,8 +25557,14 @@
       <c r="I83" t="s">
         <v>1813</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83" t="s">
+        <v>1813</v>
+      </c>
+      <c r="K83" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1182</v>
       </c>
@@ -24671,8 +25592,14 @@
       <c r="I84" t="s">
         <v>1814</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84" t="s">
+        <v>1814</v>
+      </c>
+      <c r="K84" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1183</v>
       </c>
@@ -24700,8 +25627,14 @@
       <c r="I85" t="s">
         <v>1815</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85" t="s">
+        <v>1815</v>
+      </c>
+      <c r="K85" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1184</v>
       </c>
@@ -24729,8 +25662,14 @@
       <c r="I86" t="s">
         <v>1816</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86" t="s">
+        <v>1816</v>
+      </c>
+      <c r="K86" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1185</v>
       </c>
@@ -24758,8 +25697,14 @@
       <c r="I87" t="s">
         <v>1817</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87" t="s">
+        <v>1817</v>
+      </c>
+      <c r="K87" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1186</v>
       </c>
@@ -24787,8 +25732,14 @@
       <c r="I88" t="s">
         <v>1818</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88" t="s">
+        <v>1818</v>
+      </c>
+      <c r="K88" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1187</v>
       </c>
@@ -24816,8 +25767,14 @@
       <c r="I89" t="s">
         <v>1819</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89" t="s">
+        <v>1819</v>
+      </c>
+      <c r="K89" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1188</v>
       </c>
@@ -24845,8 +25802,14 @@
       <c r="I90" t="s">
         <v>1820</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90" t="s">
+        <v>1820</v>
+      </c>
+      <c r="K90" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1189</v>
       </c>
@@ -24874,8 +25837,14 @@
       <c r="I91" t="s">
         <v>1821</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91" t="s">
+        <v>1821</v>
+      </c>
+      <c r="K91" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1190</v>
       </c>
@@ -24903,8 +25872,14 @@
       <c r="I92" t="s">
         <v>1822</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92" t="s">
+        <v>1822</v>
+      </c>
+      <c r="K92" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1191</v>
       </c>
@@ -24932,8 +25907,14 @@
       <c r="I93" t="s">
         <v>1823</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93" t="s">
+        <v>1823</v>
+      </c>
+      <c r="K93" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1192</v>
       </c>
@@ -24961,8 +25942,14 @@
       <c r="I94" t="s">
         <v>1824</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94" t="s">
+        <v>1824</v>
+      </c>
+      <c r="K94" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1193</v>
       </c>
@@ -24990,8 +25977,14 @@
       <c r="I95" t="s">
         <v>1825</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95" t="s">
+        <v>1825</v>
+      </c>
+      <c r="K95" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1194</v>
       </c>
@@ -25019,8 +26012,14 @@
       <c r="I96" t="s">
         <v>1826</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" t="s">
+        <v>1826</v>
+      </c>
+      <c r="K96" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1195</v>
       </c>
@@ -25048,8 +26047,14 @@
       <c r="I97" t="s">
         <v>1827</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" t="s">
+        <v>1827</v>
+      </c>
+      <c r="K97" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1196</v>
       </c>
@@ -25077,8 +26082,14 @@
       <c r="I98" t="s">
         <v>1828</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" t="s">
+        <v>1828</v>
+      </c>
+      <c r="K98" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1197</v>
       </c>
@@ -25106,8 +26117,14 @@
       <c r="I99" t="s">
         <v>1829</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" t="s">
+        <v>1829</v>
+      </c>
+      <c r="K99" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1198</v>
       </c>
@@ -25135,8 +26152,14 @@
       <c r="I100" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" t="s">
+        <v>1830</v>
+      </c>
+      <c r="K100" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1199</v>
       </c>
@@ -25164,8 +26187,14 @@
       <c r="I101" t="s">
         <v>1831</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101" t="s">
+        <v>1831</v>
+      </c>
+      <c r="K101" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1200</v>
       </c>
@@ -25193,8 +26222,14 @@
       <c r="I102" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102" t="s">
+        <v>1832</v>
+      </c>
+      <c r="K102" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1201</v>
       </c>
@@ -25222,8 +26257,14 @@
       <c r="I103" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103" t="s">
+        <v>1833</v>
+      </c>
+      <c r="K103" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1202</v>
       </c>
@@ -25251,8 +26292,14 @@
       <c r="I104" t="s">
         <v>1834</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104" t="s">
+        <v>1834</v>
+      </c>
+      <c r="K104" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1203</v>
       </c>
@@ -25280,8 +26327,14 @@
       <c r="I105" t="s">
         <v>1835</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105" t="s">
+        <v>1835</v>
+      </c>
+      <c r="K105" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1204</v>
       </c>
@@ -25309,8 +26362,14 @@
       <c r="I106" t="s">
         <v>1836</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106" t="s">
+        <v>1836</v>
+      </c>
+      <c r="K106" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1205</v>
       </c>
@@ -25338,8 +26397,14 @@
       <c r="I107" t="s">
         <v>1837</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107" t="s">
+        <v>1837</v>
+      </c>
+      <c r="K107" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1206</v>
       </c>
@@ -25367,8 +26432,14 @@
       <c r="I108" t="s">
         <v>1838</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108" t="s">
+        <v>1838</v>
+      </c>
+      <c r="K108" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1207</v>
       </c>
@@ -25396,8 +26467,14 @@
       <c r="I109" t="s">
         <v>1839</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109" t="s">
+        <v>1839</v>
+      </c>
+      <c r="K109" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1208</v>
       </c>
@@ -25425,8 +26502,14 @@
       <c r="I110" t="s">
         <v>1840</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110" t="s">
+        <v>1840</v>
+      </c>
+      <c r="K110" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1209</v>
       </c>
@@ -25454,8 +26537,14 @@
       <c r="I111" t="s">
         <v>1841</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111" t="s">
+        <v>1841</v>
+      </c>
+      <c r="K111" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1210</v>
       </c>
@@ -25483,8 +26572,14 @@
       <c r="I112" t="s">
         <v>1842</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112" t="s">
+        <v>1842</v>
+      </c>
+      <c r="K112" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1211</v>
       </c>
@@ -25512,8 +26607,14 @@
       <c r="I113" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113" t="s">
+        <v>1843</v>
+      </c>
+      <c r="K113" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1212</v>
       </c>
@@ -25541,8 +26642,14 @@
       <c r="I114" t="s">
         <v>1844</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114" t="s">
+        <v>1844</v>
+      </c>
+      <c r="K114" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1213</v>
       </c>
@@ -25570,8 +26677,14 @@
       <c r="I115" t="s">
         <v>1845</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115" t="s">
+        <v>1845</v>
+      </c>
+      <c r="K115" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1214</v>
       </c>
@@ -25599,8 +26712,14 @@
       <c r="I116" t="s">
         <v>1846</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116" t="s">
+        <v>1846</v>
+      </c>
+      <c r="K116" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1215</v>
       </c>
@@ -25628,8 +26747,14 @@
       <c r="I117" t="s">
         <v>1847</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117" t="s">
+        <v>1847</v>
+      </c>
+      <c r="K117" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1216</v>
       </c>
@@ -25657,8 +26782,14 @@
       <c r="I118" t="s">
         <v>1848</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118" t="s">
+        <v>1848</v>
+      </c>
+      <c r="K118" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1217</v>
       </c>
@@ -25686,8 +26817,14 @@
       <c r="I119" t="s">
         <v>1849</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119" t="s">
+        <v>1849</v>
+      </c>
+      <c r="K119" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1218</v>
       </c>
@@ -25715,8 +26852,14 @@
       <c r="I120" t="s">
         <v>1850</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J120" t="s">
+        <v>1850</v>
+      </c>
+      <c r="K120" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1219</v>
       </c>
@@ -25744,8 +26887,14 @@
       <c r="I121" t="s">
         <v>1851</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121" t="s">
+        <v>1851</v>
+      </c>
+      <c r="K121" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1220</v>
       </c>
@@ -25773,8 +26922,14 @@
       <c r="I122" t="s">
         <v>1852</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122" t="s">
+        <v>1852</v>
+      </c>
+      <c r="K122" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>1221</v>
       </c>
@@ -25802,8 +26957,14 @@
       <c r="I123" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123" t="s">
+        <v>1853</v>
+      </c>
+      <c r="K123" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1222</v>
       </c>
@@ -25831,8 +26992,14 @@
       <c r="I124" t="s">
         <v>1854</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124" t="s">
+        <v>1854</v>
+      </c>
+      <c r="K124" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1223</v>
       </c>
@@ -25860,8 +27027,14 @@
       <c r="I125" t="s">
         <v>1855</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125" t="s">
+        <v>1855</v>
+      </c>
+      <c r="K125" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>1224</v>
       </c>
@@ -25889,8 +27062,14 @@
       <c r="I126" t="s">
         <v>1856</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126" t="s">
+        <v>1856</v>
+      </c>
+      <c r="K126" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1225</v>
       </c>
@@ -25918,8 +27097,14 @@
       <c r="I127" t="s">
         <v>1857</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127" t="s">
+        <v>1857</v>
+      </c>
+      <c r="K127" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1226</v>
       </c>
@@ -25947,8 +27132,14 @@
       <c r="I128" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128" t="s">
+        <v>1858</v>
+      </c>
+      <c r="K128" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1227</v>
       </c>
@@ -25976,8 +27167,14 @@
       <c r="I129" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129" t="s">
+        <v>1859</v>
+      </c>
+      <c r="K129" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1228</v>
       </c>
@@ -26005,8 +27202,14 @@
       <c r="I130" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130" t="s">
+        <v>1860</v>
+      </c>
+      <c r="K130" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>1229</v>
       </c>
@@ -26034,8 +27237,14 @@
       <c r="I131" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131" t="s">
+        <v>1861</v>
+      </c>
+      <c r="K131" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1230</v>
       </c>
@@ -26063,8 +27272,14 @@
       <c r="I132" t="s">
         <v>1862</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132" t="s">
+        <v>1862</v>
+      </c>
+      <c r="K132" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1231</v>
       </c>
@@ -26092,8 +27307,14 @@
       <c r="I133" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133" t="s">
+        <v>1863</v>
+      </c>
+      <c r="K133" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>1232</v>
       </c>
@@ -26121,8 +27342,14 @@
       <c r="I134" t="s">
         <v>1864</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134" t="s">
+        <v>1864</v>
+      </c>
+      <c r="K134" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>1233</v>
       </c>
@@ -26150,8 +27377,14 @@
       <c r="I135" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135" t="s">
+        <v>1865</v>
+      </c>
+      <c r="K135" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>1234</v>
       </c>
@@ -26179,8 +27412,14 @@
       <c r="I136" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136" t="s">
+        <v>1866</v>
+      </c>
+      <c r="K136" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>1235</v>
       </c>
@@ -26208,8 +27447,14 @@
       <c r="I137" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K137" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1236</v>
       </c>
@@ -26237,8 +27482,14 @@
       <c r="I138" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138" t="s">
+        <v>1868</v>
+      </c>
+      <c r="K138" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1237</v>
       </c>
@@ -26266,8 +27517,14 @@
       <c r="I139" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139" t="s">
+        <v>1869</v>
+      </c>
+      <c r="K139" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1238</v>
       </c>
@@ -26295,8 +27552,14 @@
       <c r="I140" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140" t="s">
+        <v>1870</v>
+      </c>
+      <c r="K140" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1239</v>
       </c>
@@ -26324,8 +27587,14 @@
       <c r="I141" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J141" t="s">
+        <v>1871</v>
+      </c>
+      <c r="K141" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1240</v>
       </c>
@@ -26353,8 +27622,14 @@
       <c r="I142" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142" t="s">
+        <v>1872</v>
+      </c>
+      <c r="K142" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1241</v>
       </c>
@@ -26382,8 +27657,14 @@
       <c r="I143" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143" t="s">
+        <v>1873</v>
+      </c>
+      <c r="K143" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1242</v>
       </c>
@@ -26411,8 +27692,14 @@
       <c r="I144" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144" t="s">
+        <v>1874</v>
+      </c>
+      <c r="K144" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>1243</v>
       </c>
@@ -26440,8 +27727,14 @@
       <c r="I145" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145" t="s">
+        <v>1875</v>
+      </c>
+      <c r="K145" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1244</v>
       </c>
@@ -26469,8 +27762,14 @@
       <c r="I146" t="s">
         <v>1876</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146" t="s">
+        <v>1876</v>
+      </c>
+      <c r="K146" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1245</v>
       </c>
@@ -26498,8 +27797,14 @@
       <c r="I147" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147" t="s">
+        <v>1877</v>
+      </c>
+      <c r="K147" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1246</v>
       </c>
@@ -26527,8 +27832,14 @@
       <c r="I148" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148" t="s">
+        <v>1878</v>
+      </c>
+      <c r="K148" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1247</v>
       </c>
@@ -26556,8 +27867,14 @@
       <c r="I149" t="s">
         <v>1879</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149" t="s">
+        <v>1879</v>
+      </c>
+      <c r="K149" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1248</v>
       </c>
@@ -26585,8 +27902,14 @@
       <c r="I150" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K150" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1249</v>
       </c>
@@ -26614,8 +27937,14 @@
       <c r="I151" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151" t="s">
+        <v>1881</v>
+      </c>
+      <c r="K151" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1250</v>
       </c>
@@ -26643,8 +27972,14 @@
       <c r="I152" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152" t="s">
+        <v>1882</v>
+      </c>
+      <c r="K152" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1251</v>
       </c>
@@ -26672,8 +28007,14 @@
       <c r="I153" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J153" t="s">
+        <v>1883</v>
+      </c>
+      <c r="K153" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1252</v>
       </c>
@@ -26701,8 +28042,14 @@
       <c r="I154" t="s">
         <v>1884</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K154" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1253</v>
       </c>
@@ -26730,8 +28077,14 @@
       <c r="I155" t="s">
         <v>1885</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155" t="s">
+        <v>1885</v>
+      </c>
+      <c r="K155" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1254</v>
       </c>
@@ -26759,8 +28112,14 @@
       <c r="I156" t="s">
         <v>1886</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J156" t="s">
+        <v>1886</v>
+      </c>
+      <c r="K156" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1255</v>
       </c>
@@ -26788,8 +28147,14 @@
       <c r="I157" t="s">
         <v>1887</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J157" t="s">
+        <v>1887</v>
+      </c>
+      <c r="K157" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1256</v>
       </c>
@@ -26817,8 +28182,14 @@
       <c r="I158" t="s">
         <v>1888</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158" t="s">
+        <v>1888</v>
+      </c>
+      <c r="K158" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1257</v>
       </c>
@@ -26846,8 +28217,14 @@
       <c r="I159" t="s">
         <v>1889</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K159" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1258</v>
       </c>
@@ -26875,8 +28252,14 @@
       <c r="I160" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160" t="s">
+        <v>1890</v>
+      </c>
+      <c r="K160" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1259</v>
       </c>
@@ -26904,8 +28287,14 @@
       <c r="I161" t="s">
         <v>1891</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J161" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K161" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1260</v>
       </c>
@@ -26933,8 +28322,14 @@
       <c r="I162" t="s">
         <v>1892</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162" t="s">
+        <v>1892</v>
+      </c>
+      <c r="K162" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1261</v>
       </c>
@@ -26962,8 +28357,14 @@
       <c r="I163" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163" t="s">
+        <v>1893</v>
+      </c>
+      <c r="K163" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1262</v>
       </c>
@@ -26991,8 +28392,14 @@
       <c r="I164" t="s">
         <v>1894</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J164" t="s">
+        <v>1894</v>
+      </c>
+      <c r="K164" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1263</v>
       </c>
@@ -27020,8 +28427,14 @@
       <c r="I165" t="s">
         <v>1895</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J165" t="s">
+        <v>1895</v>
+      </c>
+      <c r="K165" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1264</v>
       </c>
@@ -27049,8 +28462,14 @@
       <c r="I166" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K166" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1265</v>
       </c>
@@ -27078,8 +28497,14 @@
       <c r="I167" t="s">
         <v>1897</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J167" t="s">
+        <v>1897</v>
+      </c>
+      <c r="K167" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1266</v>
       </c>
@@ -27107,8 +28532,14 @@
       <c r="I168" t="s">
         <v>1898</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168" t="s">
+        <v>1898</v>
+      </c>
+      <c r="K168" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1267</v>
       </c>
@@ -27136,8 +28567,14 @@
       <c r="I169" t="s">
         <v>1899</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169" t="s">
+        <v>1899</v>
+      </c>
+      <c r="K169" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1268</v>
       </c>
@@ -27165,8 +28602,14 @@
       <c r="I170" t="s">
         <v>1900</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J170" t="s">
+        <v>1900</v>
+      </c>
+      <c r="K170" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1269</v>
       </c>
@@ -27194,8 +28637,14 @@
       <c r="I171" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J171" t="s">
+        <v>1901</v>
+      </c>
+      <c r="K171" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>1270</v>
       </c>
@@ -27223,8 +28672,14 @@
       <c r="I172" t="s">
         <v>1902</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J172" t="s">
+        <v>1902</v>
+      </c>
+      <c r="K172" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>1271</v>
       </c>
@@ -27252,8 +28707,14 @@
       <c r="I173" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J173" t="s">
+        <v>1903</v>
+      </c>
+      <c r="K173" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1272</v>
       </c>
@@ -27281,8 +28742,14 @@
       <c r="I174" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J174" t="s">
+        <v>1904</v>
+      </c>
+      <c r="K174" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>1273</v>
       </c>
@@ -27310,8 +28777,14 @@
       <c r="I175" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J175" t="s">
+        <v>1905</v>
+      </c>
+      <c r="K175" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>1274</v>
       </c>
@@ -27339,8 +28812,14 @@
       <c r="I176" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J176" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K176" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>1275</v>
       </c>
@@ -27368,8 +28847,14 @@
       <c r="I177" t="s">
         <v>1907</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J177" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K177" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>1276</v>
       </c>
@@ -27397,8 +28882,14 @@
       <c r="I178" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178" t="s">
+        <v>1908</v>
+      </c>
+      <c r="K178" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>1277</v>
       </c>
@@ -27426,8 +28917,14 @@
       <c r="I179" t="s">
         <v>1909</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J179" t="s">
+        <v>1909</v>
+      </c>
+      <c r="K179" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>1278</v>
       </c>
@@ -27455,8 +28952,14 @@
       <c r="I180" t="s">
         <v>1910</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J180" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K180" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>1279</v>
       </c>
@@ -27484,8 +28987,14 @@
       <c r="I181" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J181" t="s">
+        <v>1911</v>
+      </c>
+      <c r="K181" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>1280</v>
       </c>
@@ -27513,8 +29022,14 @@
       <c r="I182" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J182" t="s">
+        <v>1912</v>
+      </c>
+      <c r="K182" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>1281</v>
       </c>
@@ -27542,8 +29057,14 @@
       <c r="I183" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J183" t="s">
+        <v>1913</v>
+      </c>
+      <c r="K183" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>1282</v>
       </c>
@@ -27571,8 +29092,14 @@
       <c r="I184" t="s">
         <v>1914</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J184" t="s">
+        <v>1914</v>
+      </c>
+      <c r="K184" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>1283</v>
       </c>
@@ -27600,8 +29127,14 @@
       <c r="I185" t="s">
         <v>1915</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J185" t="s">
+        <v>1915</v>
+      </c>
+      <c r="K185" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>1284</v>
       </c>
@@ -27629,8 +29162,14 @@
       <c r="I186" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J186" t="s">
+        <v>1916</v>
+      </c>
+      <c r="K186" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1285</v>
       </c>
@@ -27658,8 +29197,14 @@
       <c r="I187" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J187" t="s">
+        <v>1917</v>
+      </c>
+      <c r="K187" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>1286</v>
       </c>
@@ -27687,8 +29232,14 @@
       <c r="I188" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J188" t="s">
+        <v>1918</v>
+      </c>
+      <c r="K188" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>1287</v>
       </c>
@@ -27716,8 +29267,14 @@
       <c r="I189" t="s">
         <v>1919</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J189" t="s">
+        <v>1919</v>
+      </c>
+      <c r="K189" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>1288</v>
       </c>
@@ -27745,8 +29302,14 @@
       <c r="I190" t="s">
         <v>1920</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J190" t="s">
+        <v>1920</v>
+      </c>
+      <c r="K190" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>1289</v>
       </c>
@@ -27774,8 +29337,14 @@
       <c r="I191" t="s">
         <v>1921</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J191" t="s">
+        <v>1921</v>
+      </c>
+      <c r="K191" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>1290</v>
       </c>
@@ -27803,8 +29372,14 @@
       <c r="I192" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J192" t="s">
+        <v>1922</v>
+      </c>
+      <c r="K192" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>1291</v>
       </c>
@@ -27832,8 +29407,14 @@
       <c r="I193" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J193" t="s">
+        <v>1923</v>
+      </c>
+      <c r="K193" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>1292</v>
       </c>
@@ -27861,8 +29442,14 @@
       <c r="I194" t="s">
         <v>1924</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J194" t="s">
+        <v>1924</v>
+      </c>
+      <c r="K194" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>1293</v>
       </c>
@@ -27890,8 +29477,14 @@
       <c r="I195" t="s">
         <v>1925</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J195" t="s">
+        <v>1925</v>
+      </c>
+      <c r="K195" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>1294</v>
       </c>
@@ -27919,8 +29512,14 @@
       <c r="I196" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J196" t="s">
+        <v>1926</v>
+      </c>
+      <c r="K196" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>1295</v>
       </c>
@@ -27948,8 +29547,14 @@
       <c r="I197" t="s">
         <v>1927</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J197" t="s">
+        <v>1927</v>
+      </c>
+      <c r="K197" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>1296</v>
       </c>
@@ -27977,8 +29582,14 @@
       <c r="I198" t="s">
         <v>1928</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J198" t="s">
+        <v>1928</v>
+      </c>
+      <c r="K198" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>1297</v>
       </c>
@@ -28006,8 +29617,14 @@
       <c r="I199" t="s">
         <v>1929</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J199" t="s">
+        <v>1929</v>
+      </c>
+      <c r="K199" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1298</v>
       </c>
@@ -28035,8 +29652,14 @@
       <c r="I200" t="s">
         <v>1930</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J200" t="s">
+        <v>1930</v>
+      </c>
+      <c r="K200" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>1299</v>
       </c>
@@ -28064,8 +29687,14 @@
       <c r="I201" t="s">
         <v>1931</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J201" t="s">
+        <v>1931</v>
+      </c>
+      <c r="K201" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1300</v>
       </c>
@@ -28093,8 +29722,14 @@
       <c r="I202" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J202" t="s">
+        <v>1932</v>
+      </c>
+      <c r="K202" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1301</v>
       </c>
@@ -28122,8 +29757,14 @@
       <c r="I203" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J203" t="s">
+        <v>1933</v>
+      </c>
+      <c r="K203" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1302</v>
       </c>
@@ -28151,8 +29792,14 @@
       <c r="I204" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J204" t="s">
+        <v>1934</v>
+      </c>
+      <c r="K204" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1303</v>
       </c>
@@ -28180,8 +29827,14 @@
       <c r="I205" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J205" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K205" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1304</v>
       </c>
@@ -28209,8 +29862,14 @@
       <c r="I206" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J206" t="s">
+        <v>1936</v>
+      </c>
+      <c r="K206" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>1305</v>
       </c>
@@ -28238,8 +29897,14 @@
       <c r="I207" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J207" t="s">
+        <v>1937</v>
+      </c>
+      <c r="K207" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>1306</v>
       </c>
@@ -28267,8 +29932,14 @@
       <c r="I208" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J208" t="s">
+        <v>1938</v>
+      </c>
+      <c r="K208" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1307</v>
       </c>
@@ -28296,8 +29967,14 @@
       <c r="I209" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J209" t="s">
+        <v>1939</v>
+      </c>
+      <c r="K209" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1308</v>
       </c>
@@ -28325,8 +30002,14 @@
       <c r="I210" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J210" t="s">
+        <v>1940</v>
+      </c>
+      <c r="K210" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1309</v>
       </c>
@@ -28354,8 +30037,14 @@
       <c r="I211" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J211" t="s">
+        <v>1941</v>
+      </c>
+      <c r="K211" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1310</v>
       </c>
@@ -28383,8 +30072,14 @@
       <c r="I212" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J212" t="s">
+        <v>1942</v>
+      </c>
+      <c r="K212" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>1311</v>
       </c>
@@ -28412,8 +30107,14 @@
       <c r="I213" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J213" t="s">
+        <v>1943</v>
+      </c>
+      <c r="K213" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1312</v>
       </c>
@@ -28441,8 +30142,14 @@
       <c r="I214" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J214" t="s">
+        <v>1944</v>
+      </c>
+      <c r="K214" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1313</v>
       </c>
@@ -28470,8 +30177,14 @@
       <c r="I215" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J215" t="s">
+        <v>1945</v>
+      </c>
+      <c r="K215" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>1314</v>
       </c>
@@ -28499,8 +30212,14 @@
       <c r="I216" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J216" t="s">
+        <v>1946</v>
+      </c>
+      <c r="K216" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>1315</v>
       </c>
@@ -28528,8 +30247,14 @@
       <c r="I217" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J217" t="s">
+        <v>1947</v>
+      </c>
+      <c r="K217" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>1316</v>
       </c>
@@ -28557,8 +30282,14 @@
       <c r="I218" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J218" t="s">
+        <v>1948</v>
+      </c>
+      <c r="K218" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1317</v>
       </c>
@@ -28586,8 +30317,14 @@
       <c r="I219" t="s">
         <v>1949</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J219" t="s">
+        <v>1949</v>
+      </c>
+      <c r="K219" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1318</v>
       </c>
@@ -28615,8 +30352,14 @@
       <c r="I220" t="s">
         <v>1950</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J220" t="s">
+        <v>1950</v>
+      </c>
+      <c r="K220" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>1319</v>
       </c>
@@ -28644,8 +30387,14 @@
       <c r="I221" t="s">
         <v>1951</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J221" t="s">
+        <v>1951</v>
+      </c>
+      <c r="K221" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1320</v>
       </c>
@@ -28673,8 +30422,14 @@
       <c r="I222" t="s">
         <v>1952</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J222" t="s">
+        <v>1952</v>
+      </c>
+      <c r="K222" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1321</v>
       </c>
@@ -28702,8 +30457,14 @@
       <c r="I223" t="s">
         <v>1953</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J223" t="s">
+        <v>1953</v>
+      </c>
+      <c r="K223" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1322</v>
       </c>
@@ -28731,8 +30492,14 @@
       <c r="I224" t="s">
         <v>1954</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J224" t="s">
+        <v>1954</v>
+      </c>
+      <c r="K224" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1323</v>
       </c>
@@ -28760,8 +30527,14 @@
       <c r="I225" t="s">
         <v>1955</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J225" t="s">
+        <v>1955</v>
+      </c>
+      <c r="K225" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1324</v>
       </c>
@@ -28789,8 +30562,14 @@
       <c r="I226" t="s">
         <v>1956</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J226" t="s">
+        <v>1956</v>
+      </c>
+      <c r="K226" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1325</v>
       </c>
@@ -28818,8 +30597,14 @@
       <c r="I227" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J227" t="s">
+        <v>1957</v>
+      </c>
+      <c r="K227" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1326</v>
       </c>
@@ -28847,8 +30632,14 @@
       <c r="I228" t="s">
         <v>1958</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J228" t="s">
+        <v>1958</v>
+      </c>
+      <c r="K228" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1327</v>
       </c>
@@ -28876,8 +30667,14 @@
       <c r="I229" t="s">
         <v>1959</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J229" t="s">
+        <v>1959</v>
+      </c>
+      <c r="K229" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1328</v>
       </c>
@@ -28905,8 +30702,14 @@
       <c r="I230" t="s">
         <v>1960</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J230" t="s">
+        <v>1960</v>
+      </c>
+      <c r="K230" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1329</v>
       </c>
@@ -28934,8 +30737,14 @@
       <c r="I231" t="s">
         <v>1961</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J231" t="s">
+        <v>1961</v>
+      </c>
+      <c r="K231" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1330</v>
       </c>
@@ -28963,8 +30772,14 @@
       <c r="I232" t="s">
         <v>1962</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J232" t="s">
+        <v>1962</v>
+      </c>
+      <c r="K232" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1331</v>
       </c>
@@ -28992,8 +30807,14 @@
       <c r="I233" t="s">
         <v>1963</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J233" t="s">
+        <v>1963</v>
+      </c>
+      <c r="K233" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>1332</v>
       </c>
@@ -29021,8 +30842,14 @@
       <c r="I234" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J234" t="s">
+        <v>1964</v>
+      </c>
+      <c r="K234" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1333</v>
       </c>
@@ -29050,8 +30877,14 @@
       <c r="I235" t="s">
         <v>1965</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J235" t="s">
+        <v>1965</v>
+      </c>
+      <c r="K235" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1334</v>
       </c>
@@ -29079,8 +30912,14 @@
       <c r="I236" t="s">
         <v>1966</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J236" t="s">
+        <v>1966</v>
+      </c>
+      <c r="K236" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1335</v>
       </c>
@@ -29108,8 +30947,14 @@
       <c r="I237" t="s">
         <v>1967</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J237" t="s">
+        <v>1967</v>
+      </c>
+      <c r="K237" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1336</v>
       </c>
@@ -29137,8 +30982,14 @@
       <c r="I238" t="s">
         <v>1968</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J238" t="s">
+        <v>1968</v>
+      </c>
+      <c r="K238" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1337</v>
       </c>
@@ -29166,8 +31017,14 @@
       <c r="I239" t="s">
         <v>1969</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J239" t="s">
+        <v>1969</v>
+      </c>
+      <c r="K239" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1338</v>
       </c>
@@ -29195,8 +31052,14 @@
       <c r="I240" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J240" t="s">
+        <v>1970</v>
+      </c>
+      <c r="K240" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1339</v>
       </c>
@@ -29224,8 +31087,14 @@
       <c r="I241" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J241" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K241" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1340</v>
       </c>
@@ -29253,8 +31122,14 @@
       <c r="I242" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J242" t="s">
+        <v>1972</v>
+      </c>
+      <c r="K242" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1341</v>
       </c>
@@ -29282,8 +31157,14 @@
       <c r="I243" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J243" t="s">
+        <v>1973</v>
+      </c>
+      <c r="K243" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1342</v>
       </c>
@@ -29311,8 +31192,14 @@
       <c r="I244" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J244" t="s">
+        <v>1974</v>
+      </c>
+      <c r="K244" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1343</v>
       </c>
@@ -29340,8 +31227,14 @@
       <c r="I245" t="s">
         <v>1975</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J245" t="s">
+        <v>1975</v>
+      </c>
+      <c r="K245" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1344</v>
       </c>
@@ -29369,8 +31262,14 @@
       <c r="I246" t="s">
         <v>1976</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J246" t="s">
+        <v>1976</v>
+      </c>
+      <c r="K246" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1345</v>
       </c>
@@ -29398,8 +31297,14 @@
       <c r="I247" t="s">
         <v>1977</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J247" t="s">
+        <v>1977</v>
+      </c>
+      <c r="K247" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1346</v>
       </c>
@@ -29427,8 +31332,14 @@
       <c r="I248" t="s">
         <v>1978</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J248" t="s">
+        <v>1978</v>
+      </c>
+      <c r="K248" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1347</v>
       </c>
@@ -29456,8 +31367,14 @@
       <c r="I249" t="s">
         <v>1979</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J249" t="s">
+        <v>1979</v>
+      </c>
+      <c r="K249" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1348</v>
       </c>
@@ -29485,8 +31402,14 @@
       <c r="I250" t="s">
         <v>1980</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J250" t="s">
+        <v>1980</v>
+      </c>
+      <c r="K250" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1349</v>
       </c>
@@ -29514,8 +31437,14 @@
       <c r="I251" t="s">
         <v>1981</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J251" t="s">
+        <v>1981</v>
+      </c>
+      <c r="K251" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1350</v>
       </c>
@@ -29543,8 +31472,14 @@
       <c r="I252" t="s">
         <v>1982</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J252" t="s">
+        <v>1982</v>
+      </c>
+      <c r="K252" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1351</v>
       </c>
@@ -29572,8 +31507,14 @@
       <c r="I253" t="s">
         <v>1983</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J253" t="s">
+        <v>1983</v>
+      </c>
+      <c r="K253" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1352</v>
       </c>
@@ -29601,8 +31542,14 @@
       <c r="I254" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J254" t="s">
+        <v>1984</v>
+      </c>
+      <c r="K254" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1353</v>
       </c>
@@ -29630,8 +31577,14 @@
       <c r="I255" t="s">
         <v>1985</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J255" t="s">
+        <v>1985</v>
+      </c>
+      <c r="K255" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1354</v>
       </c>
@@ -29659,8 +31612,14 @@
       <c r="I256" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J256" t="s">
+        <v>1986</v>
+      </c>
+      <c r="K256" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1355</v>
       </c>
@@ -29688,8 +31647,14 @@
       <c r="I257" t="s">
         <v>1987</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J257" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K257" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1356</v>
       </c>
@@ -29717,8 +31682,14 @@
       <c r="I258" t="s">
         <v>1988</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J258" t="s">
+        <v>1988</v>
+      </c>
+      <c r="K258" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1357</v>
       </c>
@@ -29746,8 +31717,14 @@
       <c r="I259" t="s">
         <v>1989</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J259" t="s">
+        <v>1989</v>
+      </c>
+      <c r="K259" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1358</v>
       </c>
@@ -29775,8 +31752,14 @@
       <c r="I260" t="s">
         <v>1990</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J260" t="s">
+        <v>1990</v>
+      </c>
+      <c r="K260" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1359</v>
       </c>
@@ -29804,8 +31787,14 @@
       <c r="I261" t="s">
         <v>1991</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J261" t="s">
+        <v>1991</v>
+      </c>
+      <c r="K261" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1360</v>
       </c>
@@ -29833,8 +31822,14 @@
       <c r="I262" t="s">
         <v>1992</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J262" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K262" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1361</v>
       </c>
@@ -29862,8 +31857,14 @@
       <c r="I263" t="s">
         <v>1993</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J263" t="s">
+        <v>1993</v>
+      </c>
+      <c r="K263" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1362</v>
       </c>
@@ -29891,8 +31892,14 @@
       <c r="I264" t="s">
         <v>1994</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J264" t="s">
+        <v>1994</v>
+      </c>
+      <c r="K264" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1363</v>
       </c>
@@ -29920,8 +31927,14 @@
       <c r="I265" t="s">
         <v>1995</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J265" t="s">
+        <v>1995</v>
+      </c>
+      <c r="K265" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1364</v>
       </c>
@@ -29949,8 +31962,14 @@
       <c r="I266" t="s">
         <v>1996</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J266" t="s">
+        <v>1996</v>
+      </c>
+      <c r="K266" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1365</v>
       </c>
@@ -29978,8 +31997,14 @@
       <c r="I267" t="s">
         <v>1997</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J267" t="s">
+        <v>1997</v>
+      </c>
+      <c r="K267" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1366</v>
       </c>
@@ -30007,8 +32032,14 @@
       <c r="I268" t="s">
         <v>1998</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J268" t="s">
+        <v>1998</v>
+      </c>
+      <c r="K268" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1367</v>
       </c>
@@ -30036,8 +32067,14 @@
       <c r="I269" t="s">
         <v>1999</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J269" t="s">
+        <v>1999</v>
+      </c>
+      <c r="K269" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1368</v>
       </c>
@@ -30065,8 +32102,14 @@
       <c r="I270" t="s">
         <v>2000</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J270" t="s">
+        <v>2000</v>
+      </c>
+      <c r="K270" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1369</v>
       </c>
@@ -30094,8 +32137,14 @@
       <c r="I271" t="s">
         <v>2001</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J271" t="s">
+        <v>2001</v>
+      </c>
+      <c r="K271" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1370</v>
       </c>
@@ -30123,8 +32172,14 @@
       <c r="I272" t="s">
         <v>2002</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J272" t="s">
+        <v>2002</v>
+      </c>
+      <c r="K272" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1371</v>
       </c>
@@ -30152,8 +32207,14 @@
       <c r="I273" t="s">
         <v>2003</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J273" t="s">
+        <v>2003</v>
+      </c>
+      <c r="K273" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1372</v>
       </c>
@@ -30181,8 +32242,14 @@
       <c r="I274" t="s">
         <v>2004</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J274" t="s">
+        <v>2004</v>
+      </c>
+      <c r="K274" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1373</v>
       </c>
@@ -30210,8 +32277,14 @@
       <c r="I275" t="s">
         <v>2005</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J275" t="s">
+        <v>2005</v>
+      </c>
+      <c r="K275" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1374</v>
       </c>
@@ -30239,8 +32312,14 @@
       <c r="I276" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J276" t="s">
+        <v>2006</v>
+      </c>
+      <c r="K276" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1375</v>
       </c>
@@ -30268,8 +32347,14 @@
       <c r="I277" t="s">
         <v>2007</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J277" t="s">
+        <v>2007</v>
+      </c>
+      <c r="K277" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1376</v>
       </c>
@@ -30297,8 +32382,14 @@
       <c r="I278" t="s">
         <v>2008</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J278" t="s">
+        <v>2008</v>
+      </c>
+      <c r="K278" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1377</v>
       </c>
@@ -30326,8 +32417,14 @@
       <c r="I279" t="s">
         <v>2009</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J279" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K279" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1378</v>
       </c>
@@ -30355,8 +32452,14 @@
       <c r="I280" t="s">
         <v>2010</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J280" t="s">
+        <v>2010</v>
+      </c>
+      <c r="K280" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1379</v>
       </c>
@@ -30384,8 +32487,14 @@
       <c r="I281" t="s">
         <v>2011</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J281" t="s">
+        <v>2011</v>
+      </c>
+      <c r="K281" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1380</v>
       </c>
@@ -30413,8 +32522,14 @@
       <c r="I282" t="s">
         <v>2012</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J282" t="s">
+        <v>2012</v>
+      </c>
+      <c r="K282" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1381</v>
       </c>
@@ -30442,8 +32557,14 @@
       <c r="I283" t="s">
         <v>2013</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J283" t="s">
+        <v>2013</v>
+      </c>
+      <c r="K283" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1382</v>
       </c>
@@ -30471,8 +32592,14 @@
       <c r="I284" t="s">
         <v>2014</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J284" t="s">
+        <v>2014</v>
+      </c>
+      <c r="K284" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1383</v>
       </c>
@@ -30500,8 +32627,14 @@
       <c r="I285" t="s">
         <v>2015</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J285" t="s">
+        <v>2015</v>
+      </c>
+      <c r="K285" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1384</v>
       </c>
@@ -30529,8 +32662,14 @@
       <c r="I286" t="s">
         <v>2016</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J286" t="s">
+        <v>2016</v>
+      </c>
+      <c r="K286" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1385</v>
       </c>
@@ -30558,8 +32697,14 @@
       <c r="I287" t="s">
         <v>2017</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J287" t="s">
+        <v>2017</v>
+      </c>
+      <c r="K287" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1386</v>
       </c>
@@ -30587,8 +32732,14 @@
       <c r="I288" t="s">
         <v>2018</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J288" t="s">
+        <v>2018</v>
+      </c>
+      <c r="K288" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1387</v>
       </c>
@@ -30616,8 +32767,14 @@
       <c r="I289" t="s">
         <v>2019</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J289" t="s">
+        <v>2019</v>
+      </c>
+      <c r="K289" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1388</v>
       </c>
@@ -30645,8 +32802,14 @@
       <c r="I290" t="s">
         <v>2020</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J290" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K290" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1389</v>
       </c>
@@ -30674,8 +32837,14 @@
       <c r="I291" t="s">
         <v>2021</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J291" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K291" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1390</v>
       </c>
@@ -30703,8 +32872,14 @@
       <c r="I292" t="s">
         <v>2022</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J292" t="s">
+        <v>2022</v>
+      </c>
+      <c r="K292" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1391</v>
       </c>
@@ -30732,8 +32907,14 @@
       <c r="I293" t="s">
         <v>2023</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J293" t="s">
+        <v>2023</v>
+      </c>
+      <c r="K293" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1392</v>
       </c>
@@ -30761,8 +32942,14 @@
       <c r="I294" t="s">
         <v>2024</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J294" t="s">
+        <v>2024</v>
+      </c>
+      <c r="K294" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1393</v>
       </c>
@@ -30790,8 +32977,14 @@
       <c r="I295" t="s">
         <v>2025</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J295" t="s">
+        <v>2025</v>
+      </c>
+      <c r="K295" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1394</v>
       </c>
@@ -30819,8 +33012,14 @@
       <c r="I296" t="s">
         <v>2026</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J296" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K296" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1395</v>
       </c>
@@ -30848,8 +33047,14 @@
       <c r="I297" t="s">
         <v>2027</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J297" t="s">
+        <v>2027</v>
+      </c>
+      <c r="K297" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1396</v>
       </c>
@@ -30877,8 +33082,14 @@
       <c r="I298" t="s">
         <v>2028</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J298" t="s">
+        <v>2028</v>
+      </c>
+      <c r="K298" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1397</v>
       </c>
@@ -30906,8 +33117,14 @@
       <c r="I299" t="s">
         <v>2029</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J299" t="s">
+        <v>2029</v>
+      </c>
+      <c r="K299" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1398</v>
       </c>
@@ -30935,8 +33152,14 @@
       <c r="I300" t="s">
         <v>2030</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J300" t="s">
+        <v>2030</v>
+      </c>
+      <c r="K300" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1399</v>
       </c>
@@ -30964,8 +33187,14 @@
       <c r="I301" t="s">
         <v>2031</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J301" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K301" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1400</v>
       </c>
@@ -30993,8 +33222,14 @@
       <c r="I302" t="s">
         <v>2032</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J302" t="s">
+        <v>2032</v>
+      </c>
+      <c r="K302" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1401</v>
       </c>
@@ -31022,8 +33257,14 @@
       <c r="I303" t="s">
         <v>2033</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J303" t="s">
+        <v>2033</v>
+      </c>
+      <c r="K303" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1402</v>
       </c>
@@ -31051,8 +33292,14 @@
       <c r="I304" t="s">
         <v>2034</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J304" t="s">
+        <v>2034</v>
+      </c>
+      <c r="K304" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1403</v>
       </c>
@@ -31080,8 +33327,14 @@
       <c r="I305" t="s">
         <v>2035</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J305" t="s">
+        <v>2035</v>
+      </c>
+      <c r="K305" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1404</v>
       </c>
@@ -31109,8 +33362,14 @@
       <c r="I306" t="s">
         <v>2036</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J306" t="s">
+        <v>2036</v>
+      </c>
+      <c r="K306" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1405</v>
       </c>
@@ -31138,8 +33397,14 @@
       <c r="I307" t="s">
         <v>2037</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J307" t="s">
+        <v>2037</v>
+      </c>
+      <c r="K307" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1406</v>
       </c>
@@ -31167,8 +33432,14 @@
       <c r="I308" t="s">
         <v>2038</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J308" t="s">
+        <v>2038</v>
+      </c>
+      <c r="K308" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1407</v>
       </c>
@@ -31196,8 +33467,14 @@
       <c r="I309" t="s">
         <v>2039</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J309" t="s">
+        <v>2039</v>
+      </c>
+      <c r="K309" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1408</v>
       </c>
@@ -31225,8 +33502,14 @@
       <c r="I310" t="s">
         <v>2040</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J310" t="s">
+        <v>2040</v>
+      </c>
+      <c r="K310" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1409</v>
       </c>
@@ -31254,8 +33537,14 @@
       <c r="I311" t="s">
         <v>2041</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J311" t="s">
+        <v>2041</v>
+      </c>
+      <c r="K311" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1410</v>
       </c>
@@ -31283,8 +33572,14 @@
       <c r="I312" t="s">
         <v>2042</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J312" t="s">
+        <v>2042</v>
+      </c>
+      <c r="K312" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1411</v>
       </c>
@@ -31312,8 +33607,14 @@
       <c r="I313" t="s">
         <v>2043</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J313" t="s">
+        <v>2043</v>
+      </c>
+      <c r="K313" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1412</v>
       </c>
@@ -31341,8 +33642,14 @@
       <c r="I314" t="s">
         <v>2044</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J314" t="s">
+        <v>2044</v>
+      </c>
+      <c r="K314" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1413</v>
       </c>
@@ -31370,8 +33677,14 @@
       <c r="I315" t="s">
         <v>2045</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J315" t="s">
+        <v>2045</v>
+      </c>
+      <c r="K315" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1414</v>
       </c>
@@ -31399,8 +33712,14 @@
       <c r="I316" t="s">
         <v>2046</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J316" t="s">
+        <v>2046</v>
+      </c>
+      <c r="K316" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1415</v>
       </c>
@@ -31428,8 +33747,14 @@
       <c r="I317" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J317" t="s">
+        <v>2047</v>
+      </c>
+      <c r="K317" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1416</v>
       </c>
@@ -31457,8 +33782,14 @@
       <c r="I318" t="s">
         <v>2048</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J318" t="s">
+        <v>2048</v>
+      </c>
+      <c r="K318" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1417</v>
       </c>
@@ -31486,8 +33817,14 @@
       <c r="I319" t="s">
         <v>2049</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J319" t="s">
+        <v>2049</v>
+      </c>
+      <c r="K319" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1418</v>
       </c>
@@ -31515,8 +33852,14 @@
       <c r="I320" t="s">
         <v>2050</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J320" t="s">
+        <v>2050</v>
+      </c>
+      <c r="K320" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1419</v>
       </c>
@@ -31544,8 +33887,14 @@
       <c r="I321" t="s">
         <v>2051</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J321" t="s">
+        <v>2051</v>
+      </c>
+      <c r="K321" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1420</v>
       </c>
@@ -31573,8 +33922,14 @@
       <c r="I322" t="s">
         <v>2052</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J322" t="s">
+        <v>2052</v>
+      </c>
+      <c r="K322" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1421</v>
       </c>
@@ -31602,8 +33957,14 @@
       <c r="I323" t="s">
         <v>2053</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J323" t="s">
+        <v>2053</v>
+      </c>
+      <c r="K323" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1422</v>
       </c>
@@ -31631,8 +33992,14 @@
       <c r="I324" t="s">
         <v>2054</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J324" t="s">
+        <v>2054</v>
+      </c>
+      <c r="K324" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1423</v>
       </c>
@@ -31660,8 +34027,14 @@
       <c r="I325" t="s">
         <v>2055</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J325" t="s">
+        <v>2055</v>
+      </c>
+      <c r="K325" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1424</v>
       </c>
@@ -31689,8 +34062,14 @@
       <c r="I326" t="s">
         <v>2056</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J326" t="s">
+        <v>2056</v>
+      </c>
+      <c r="K326" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1425</v>
       </c>
@@ -31718,8 +34097,14 @@
       <c r="I327" t="s">
         <v>2057</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J327" t="s">
+        <v>2057</v>
+      </c>
+      <c r="K327" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>1426</v>
       </c>
@@ -31747,8 +34132,14 @@
       <c r="I328" t="s">
         <v>2058</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J328" t="s">
+        <v>2058</v>
+      </c>
+      <c r="K328" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>1427</v>
       </c>
@@ -31775,6 +34166,12 @@
       </c>
       <c r="I329" t="s">
         <v>2059</v>
+      </c>
+      <c r="J329" t="s">
+        <v>2059</v>
+      </c>
+      <c r="K329" t="s">
+        <v>2064</v>
       </c>
     </row>
   </sheetData>

--- a/FTSE_350_FIRM_LIST.xlsx
+++ b/FTSE_350_FIRM_LIST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms3453n\OneDrive - University of Greenwich\GitHub\FTSE_350_LIST\"/>
     </mc:Choice>
@@ -16,6 +16,7 @@
     <sheet name="2018-11" sheetId="1" r:id="rId1"/>
     <sheet name="2019-08-16" sheetId="2" r:id="rId2"/>
     <sheet name="2020-01-09" sheetId="3" r:id="rId3"/>
+    <sheet name="2020-12-22" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="2201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5807" uniqueCount="2346">
   <si>
     <t>CODE</t>
   </si>
@@ -6633,6 +6634,441 @@
   </si>
   <si>
     <t>twitter_search_name</t>
+  </si>
+  <si>
+    <t>.x..i..</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>10.8</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>29.2</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-0.20</t>
+  </si>
+  <si>
+    <t>-0.10</t>
+  </si>
+  <si>
+    <t>-0.50</t>
+  </si>
+  <si>
+    <t>-0.5</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>-1.5</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-1.4</t>
+  </si>
+  <si>
+    <t>-0.3</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>-3.5</t>
+  </si>
+  <si>
+    <t>-0.6</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>-0.8</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-2.5</t>
+  </si>
+  <si>
+    <t>-9.5</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-3.8</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>-1.7</t>
+  </si>
+  <si>
+    <t>-2.2</t>
+  </si>
+  <si>
+    <t>-2.3</t>
+  </si>
+  <si>
+    <t>-8.5</t>
+  </si>
+  <si>
+    <t>-15</t>
+  </si>
+  <si>
+    <t>-6.2</t>
+  </si>
+  <si>
+    <t>-0.7</t>
+  </si>
+  <si>
+    <t>-7.5</t>
+  </si>
+  <si>
+    <t>-0.25</t>
+  </si>
+  <si>
+    <t>-72</t>
+  </si>
+  <si>
+    <t>-0.9</t>
+  </si>
+  <si>
+    <t>-4.6</t>
+  </si>
+  <si>
+    <t>-1.2</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>-1.1</t>
+  </si>
+  <si>
+    <t>-85</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>-11</t>
   </si>
 </sst>
 </file>
@@ -7119,11 +7555,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -7487,7 +7925,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14545,7 +14983,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -22659,7 +23097,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="55.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -34177,4 +34615,3887 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C2" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C3" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C4" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C5" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C6" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C7" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C8" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C9" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C10" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C11" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C12" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C13" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C14" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C15" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C16" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C17" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C18" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C19" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C20" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C21" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C22" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C23" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C24" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C25" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C26" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C27" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C28" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C29" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C30" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C31" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C32" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C33" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C34" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C35" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C36" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C37" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C38" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C39" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C40" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C41" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C42" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C43" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C44" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C45" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C46" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C47" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C48" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C49" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C50" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C51" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C52" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C53" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C54" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C55" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C56" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C57" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C58" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C59" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C60" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C61" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C62" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C63" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C64" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C65" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C66" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C67" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C68" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C69" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C70" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C71" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C72" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C73" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C74" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C75" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C76" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C77" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C78" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C79" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C80" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C81" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C82" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C83" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C84" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C85" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C86" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C87" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C88" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C89" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C90" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C91" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C92" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C93" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C94" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C95" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C96" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C97" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C98" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C99" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C100" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C101" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C102" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C103" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C104" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C105" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C106" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C107" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C108" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C109" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C110" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C111" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C112" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C113" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C114" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C115" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C116" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C117" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C118" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C119" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C120" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C121" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C122" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C123" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C124" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C125" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C126" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C127" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C128" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C129" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C130" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C131" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C132" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C133" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C134" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C135" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C136" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C137" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C138" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C139" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C140" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C141" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C142" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C143" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C144" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C145" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C146" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C147" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C148" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C149" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C150" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C151" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C152" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C153" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C154" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C155" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C156" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C157" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C158" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C159" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C160" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C161" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C162" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C163" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C164" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C165" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C166" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C167" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C168" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C169" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C170" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C171" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C172" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C173" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C174" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C175" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C176" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C177" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C178" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C179" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C180" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C181" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C182" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C183" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C184" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C185" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C186" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C187" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C188" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C189" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C190" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C191" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C192" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C193" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C194" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C195" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C196" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C197" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C198" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C199" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C200" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C201" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C202" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C203" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C204" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C205" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C206" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C207" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C208" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C209" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C210" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C211" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C212" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B213" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C213" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B214" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C214" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C215" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B216" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C216" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C217" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C218" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C219" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B220" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C220" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B221" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C221" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B222" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C222" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C223" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C224" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B225" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C225" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C226" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B227" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C227" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B228" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C228" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C229" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C230" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C231" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C232" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B233" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C233" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B234" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C234" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B235" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C235" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B236" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C236" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B237" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C237" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C238" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C239" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B240" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C240" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B241" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C241" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B242" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C242" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B243" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C243" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B244" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C244" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B245" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C245" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B246" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C246" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B247" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C247" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B248" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C248" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B249" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C249" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B250" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C250" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B251" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C251" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B252" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C252" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B253" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C253" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B254" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C254" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B255" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C255" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B256" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C256" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B257" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C257" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B258" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C258" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B259" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C259" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B260" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C260" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B261" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C261" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B262" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C262" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B263" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C263" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B264" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C264" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B265" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C265" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B266" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C266" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B267" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C267" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B268" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C268" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B269" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C269" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B270" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C270" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B271" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C271" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B272" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C272" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B273" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C273" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B274" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C274" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B275" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C275" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B276" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C276" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B277" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C277" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B278" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C278" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B279" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C279" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B280" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C280" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B281" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C281" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B282" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C282" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B283" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C283" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B284" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C284" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B285" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C285" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B286" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C286" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B287" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C287" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B288" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C288" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B289" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C289" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B290" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C290" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B291" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C291" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B292" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C292" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B293" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C293" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B294" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C294" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B295" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C295" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B296" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C296" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B297" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C297" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B298" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C298" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B299" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C299" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B300" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C300" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B301" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C301" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B302" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C302" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B303" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C303" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B304" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C304" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B305" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C305" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B306" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C306" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B307" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C307" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B308" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C308" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B309" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C309" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B310" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C310" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B311" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C311" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B312" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C312" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B313" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C313" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B314" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C314" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B315" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C315" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B316" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C316" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B317" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C317" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B318" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C318" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B319" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C319" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B320" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C320" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B321" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C321" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B322" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C322" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B323" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C323" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B324" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C324" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B325" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C325" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B326" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C326" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B327" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C327" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B328" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C328" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B329" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C329" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B330" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C330" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B331" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C331" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B332" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C332" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B333" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C333" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B334" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C334" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B335" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C335" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B336" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C336" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B337" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C337" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B338" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C338" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B339" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C339" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B340" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C340" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B341" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C341" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B342" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C342" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B343" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C343" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B344" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C344" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B345" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C345" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B346" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C346" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B347" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C347" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B348" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C348" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B349" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C349" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B350" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C350" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B351" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C351" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B352" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C352" t="n" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>